--- a/テスト項目/結合テスト.xlsx
+++ b/テスト項目/結合テスト.xlsx
@@ -5,14 +5,15 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\B4_2019\Documents\GitHub\YoloBarcodeReader\テスト項目\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\YoloBarcodeReader\テスト項目\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14625"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14625" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="57">
   <si>
     <t>確認内容</t>
     <rPh sb="0" eb="2">
@@ -631,6 +632,61 @@
     <t>エッジ側</t>
     <rPh sb="3" eb="4">
       <t>ガワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>段原</t>
+    <rPh sb="0" eb="2">
+      <t>ダンバラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サーバ側</t>
+    <rPh sb="3" eb="4">
+      <t>ガワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>受信</t>
+    <rPh sb="0" eb="2">
+      <t>ジュシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Yolo</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バーコード判別</t>
+    <rPh sb="5" eb="7">
+      <t>ハンベツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DB</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>受信側から画像を受け取る</t>
+    <rPh sb="0" eb="2">
+      <t>ジュシン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ト</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -730,7 +786,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -740,23 +796,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1043,8 +1102,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1083,25 +1142,25 @@
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>1</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>7</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="4">
         <v>43823</v>
       </c>
       <c r="I3" s="2" t="s">
@@ -1109,19 +1168,19 @@
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B4" s="9"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="4">
+      <c r="B4" s="10"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="3">
         <v>2</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="4"/>
+      <c r="F4" s="3"/>
       <c r="G4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="4">
         <v>43823</v>
       </c>
       <c r="I4" s="2" t="s">
@@ -1129,21 +1188,21 @@
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B5" s="9"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="4">
+      <c r="B5" s="10"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="3">
         <v>3</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="4">
         <v>43823</v>
       </c>
       <c r="I5" s="2" t="s">
@@ -1151,21 +1210,21 @@
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B6" s="9"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="4">
+      <c r="B6" s="10"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="3">
         <v>4</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="3" t="s">
         <v>14</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="4">
         <v>43823</v>
       </c>
       <c r="I6" s="2" t="s">
@@ -1173,19 +1232,19 @@
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B7" s="9"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="4">
+      <c r="B7" s="10"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="3">
         <v>5</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="4"/>
+      <c r="F7" s="3"/>
       <c r="G7" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="4">
         <v>43823</v>
       </c>
       <c r="I7" s="2" t="s">
@@ -1193,21 +1252,21 @@
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B8" s="9"/>
-      <c r="C8" s="3" t="s">
+      <c r="B8" s="10"/>
+      <c r="C8" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <v>6</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="4"/>
+      <c r="F8" s="3"/>
       <c r="G8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="4">
         <v>43823</v>
       </c>
       <c r="I8" s="2" t="s">
@@ -1215,19 +1274,19 @@
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B9" s="9"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="4">
+      <c r="B9" s="10"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="3">
         <v>7</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="4"/>
+      <c r="F9" s="3"/>
       <c r="G9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="4">
         <v>43823</v>
       </c>
       <c r="I9" s="2" t="s">
@@ -1235,19 +1294,19 @@
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B10" s="9"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="4">
+      <c r="B10" s="10"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="3">
         <v>8</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="4"/>
+      <c r="F10" s="3"/>
       <c r="G10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="4">
         <v>43823</v>
       </c>
       <c r="I10" s="2" t="s">
@@ -1255,21 +1314,21 @@
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B11" s="9"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="4">
+      <c r="B11" s="10"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="3">
         <v>9</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="3" t="s">
         <v>21</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="4">
         <v>43823</v>
       </c>
       <c r="I11" s="2" t="s">
@@ -1277,19 +1336,19 @@
       </c>
     </row>
     <row r="12" spans="2:10" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B12" s="9"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="4">
+      <c r="B12" s="10"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="3">
         <v>10</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="4"/>
+      <c r="F12" s="3"/>
       <c r="G12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12" s="4">
         <v>43823</v>
       </c>
       <c r="I12" s="2" t="s">
@@ -1297,21 +1356,21 @@
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B13" s="9"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="4">
+      <c r="B13" s="10"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="3">
         <v>11</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="3" t="s">
         <v>25</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13" s="4">
         <v>43823</v>
       </c>
       <c r="I13" s="2" t="s">
@@ -1319,23 +1378,23 @@
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B14" s="9"/>
-      <c r="C14" s="3" t="s">
+      <c r="B14" s="10"/>
+      <c r="C14" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="3">
         <v>12</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="3" t="s">
         <v>28</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14" s="4">
         <v>43823</v>
       </c>
       <c r="I14" s="2" t="s">
@@ -1343,19 +1402,19 @@
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B15" s="9"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="4">
+      <c r="B15" s="10"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="3">
         <v>13</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F15" s="4"/>
+      <c r="F15" s="3"/>
       <c r="G15" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="H15" s="5">
+      <c r="H15" s="4">
         <v>43823</v>
       </c>
       <c r="I15" s="2" t="s">
@@ -1363,21 +1422,21 @@
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B16" s="9"/>
-      <c r="C16" s="3" t="s">
+      <c r="B16" s="10"/>
+      <c r="C16" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="3">
         <v>14</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F16" s="4"/>
+      <c r="F16" s="3"/>
       <c r="G16" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H16" s="5">
+      <c r="H16" s="4">
         <v>43823</v>
       </c>
       <c r="I16" s="2" t="s">
@@ -1385,19 +1444,19 @@
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B17" s="9"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="4">
+      <c r="B17" s="10"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="3">
         <v>15</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F17" s="4"/>
+      <c r="F17" s="3"/>
       <c r="G17" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="H17" s="5">
+      <c r="H17" s="4">
         <v>43823</v>
       </c>
       <c r="I17" s="2" t="s">
@@ -1405,21 +1464,21 @@
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B18" s="9"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="4">
+      <c r="B18" s="10"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="3">
         <v>16</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="F18" s="3" t="s">
         <v>34</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="H18" s="5">
+      <c r="H18" s="4">
         <v>43823</v>
       </c>
       <c r="I18" s="2" t="s">
@@ -1427,21 +1486,21 @@
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B19" s="9"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="4">
+      <c r="B19" s="10"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="3">
         <v>17</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="F19" s="3" t="s">
         <v>36</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="H19" s="5">
+      <c r="H19" s="4">
         <v>43823</v>
       </c>
       <c r="I19" s="2" t="s">
@@ -1449,21 +1508,21 @@
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B20" s="9"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="4">
+      <c r="B20" s="10"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="3">
         <v>18</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="F20" s="3" t="s">
         <v>38</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="H20" s="5">
+      <c r="H20" s="4">
         <v>43823</v>
       </c>
       <c r="I20" s="2" t="s">
@@ -1471,19 +1530,19 @@
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B21" s="9"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="4">
+      <c r="B21" s="10"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="3">
         <v>19</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E21" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F21" s="4"/>
+      <c r="F21" s="3"/>
       <c r="G21" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="H21" s="5">
+      <c r="H21" s="4">
         <v>43823</v>
       </c>
       <c r="I21" s="2" t="s">
@@ -1504,4 +1563,463 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:I21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="60.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="82.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B3" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="4">
+        <v>43823</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B4" s="10"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="3">
+        <v>2</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="4">
+        <v>43823</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B5" s="10"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="3">
+        <v>3</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="4">
+        <v>43823</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B6" s="10"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="3">
+        <v>4</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H6" s="4">
+        <v>43823</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B7" s="10"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="3">
+        <v>5</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H7" s="4">
+        <v>43823</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B8" s="10"/>
+      <c r="C8" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="3">
+        <v>6</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="4">
+        <v>43823</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B9" s="10"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="3">
+        <v>7</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="4">
+        <v>43823</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B10" s="10"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="3">
+        <v>8</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="4">
+        <v>43823</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B11" s="10"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="3">
+        <v>9</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" s="4">
+        <v>43823</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B12" s="10"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="3">
+        <v>10</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" s="4">
+        <v>43823</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B13" s="10"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="3">
+        <v>11</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H13" s="4">
+        <v>43823</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B14" s="10"/>
+      <c r="C14" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="3">
+        <v>12</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="4">
+        <v>43823</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B15" s="10"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="3">
+        <v>13</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H15" s="4">
+        <v>43823</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B16" s="10"/>
+      <c r="C16" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="3">
+        <v>14</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16" s="4">
+        <v>43823</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B17" s="10"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="3">
+        <v>15</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" s="4">
+        <v>43823</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B18" s="10"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="3">
+        <v>16</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H18" s="4">
+        <v>43823</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B19" s="10"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="3">
+        <v>17</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H19" s="4">
+        <v>43823</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B20" s="10"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="3">
+        <v>18</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H20" s="4">
+        <v>43823</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B21" s="10"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="3">
+        <v>19</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F21" s="3"/>
+      <c r="G21" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H21" s="4">
+        <v>43823</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B3:B21"/>
+    <mergeCell ref="C3:C7"/>
+    <mergeCell ref="C8:C13"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C16:C21"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
 </file>
--- a/テスト項目/結合テスト.xlsx
+++ b/テスト項目/結合テスト.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\YoloBarcodeReader\テスト項目\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\B4_2019\Documents\GitHub\YoloBarcodeReader\テスト項目\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="97">
   <si>
     <t>確認内容</t>
     <rPh sb="0" eb="2">
@@ -672,30 +672,583 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>受信側から画像を受け取る</t>
+    <t>段原</t>
     <rPh sb="0" eb="2">
+      <t>ダンバラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>OpenCV形式の画像をyoloに投げたらオブジェクト名と座標がついになったリストが返ってくる</t>
+    <rPh sb="6" eb="8">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ザヒョウ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>カメラから40cmの距離でもYologが検知率60%以上を達成</t>
+    <rPh sb="10" eb="12">
+      <t>キョリ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ケンチ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>リツ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>タッセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ラズパイからTCPで送られていた画像を正常に受信</t>
+    <rPh sb="10" eb="11">
+      <t>オク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>セイジョウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
       <t>ジュシン</t>
     </rPh>
-    <rPh sb="2" eb="3">
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ラズパイからTCPで送られていた画像とフラグ(追加or削除)を正常に受信</t>
+    <rPh sb="10" eb="11">
+      <t>オク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>セイジョウ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ジュシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データ受信プログラムで受け取った画像データをYoloに渡し結果を取得</t>
+    <rPh sb="3" eb="5">
+      <t>ジュシン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ワタ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Yoloから受け取った座標値をもとにバーコードのみを切り取る</t>
+    <rPh sb="6" eb="7">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>ザヒョウチ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pyzbarにバーコード画像を渡して番号を取得</t>
+    <rPh sb="12" eb="14">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ワタ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バーコード番号をカートDBに追加</t>
+    <rPh sb="5" eb="7">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エッジ側に画像受信から番号取得までが成否を返す</t>
+    <rPh sb="3" eb="4">
       <t>ガワ</t>
     </rPh>
     <rPh sb="5" eb="7">
       <t>ガゾウ</t>
     </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジュシン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>セイヒ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>バーコード画像を番号に変換できる</t>
+    <rPh sb="5" eb="7">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヘンカン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ブレのないバーコード画像を50%識別できる</t>
+    <rPh sb="10" eb="12">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>シキベツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画像にブレやぼやけのあるバーコード画像をN%識別できる</t>
+    <rPh sb="0" eb="2">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>シキベツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>カメラから15cm離れて撮ったバーコード画像の検知率が80%</t>
+    <rPh sb="9" eb="10">
+      <t>ハナ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ケンチ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>リツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>カメラから40cm離れて撮ったバーコード画像の検知率が25%</t>
+    <rPh sb="9" eb="10">
+      <t>ハナ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ケンチ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>リツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>カートごとに画面を分かれて表示させる</t>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>カートの中にある商品の情報をリスト表示させる</t>
+    <rPh sb="4" eb="5">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>カート内にある商品で同じものがあれば個数を表示させる</t>
+    <rPh sb="3" eb="4">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>コスウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>決算するとカート内にある商品がカート内DBから消える</t>
+    <rPh sb="0" eb="2">
+      <t>ケッサン</t>
+    </rPh>
     <rPh sb="8" eb="9">
-      <t>ウ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ト</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>決算すると購入者である顧客の所持金が正常に変わる</t>
+    <rPh sb="0" eb="2">
+      <t>ケッサン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>コウニュウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>シャ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>コキャク</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>ショジキン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>セイジョウ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>決算完了画面に残高、購入額を表示させる</t>
+    <rPh sb="0" eb="2">
+      <t>ケッサン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ザンダカ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>コウニュウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ガク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>決算時に顧客の所持金が足りていなければ決算されないようにする</t>
+    <rPh sb="0" eb="2">
+      <t>ケッサン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コキャク</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>ショジキン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ケッサン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>商品が登録されているかの結果が返ってくる</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1つしか登録しない予定の商品が誤って複数登録されないようにする</t>
+    <rPh sb="4" eb="6">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヨテイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>アヤマ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>フラグから商品の追加、削除を判断してDBに反映する</t>
+    <rPh sb="5" eb="7">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ハンダン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ハンエイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DBにある画像URLからWeb上に画像を表示させる</t>
+    <rPh sb="5" eb="7">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Windows10でYoloがPythonで実行できる</t>
+    <rPh sb="22" eb="24">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>任意の学習データを学習させバーコード専用の識別機を作る</t>
+    <rPh sb="0" eb="2">
+      <t>ニンイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ガクシュウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガクシュウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>センヨウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>シキベツ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>デフォルトのYoloのpythonプログラムをクラスに変更する</t>
+    <rPh sb="27" eb="29">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>カメラから15cmの距離でもYoloが検知率が80%以上を達成</t>
+    <rPh sb="10" eb="12">
+      <t>キョリ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ケンチ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>リツ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>タッセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>△</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -708,6 +1261,13 @@
       <sz val="6"/>
       <name val="游ゴシック"/>
       <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -786,7 +1346,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -807,6 +1367,26 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1142,10 +1722,10 @@
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="3">
@@ -1168,8 +1748,8 @@
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B4" s="10"/>
-      <c r="C4" s="8"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="16"/>
       <c r="D4" s="3">
         <v>2</v>
       </c>
@@ -1188,8 +1768,8 @@
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B5" s="10"/>
-      <c r="C5" s="8"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="16"/>
       <c r="D5" s="3">
         <v>3</v>
       </c>
@@ -1210,8 +1790,8 @@
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B6" s="10"/>
-      <c r="C6" s="8"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="16"/>
       <c r="D6" s="3">
         <v>4</v>
       </c>
@@ -1232,8 +1812,8 @@
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B7" s="10"/>
-      <c r="C7" s="9"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="17"/>
       <c r="D7" s="3">
         <v>5</v>
       </c>
@@ -1252,8 +1832,8 @@
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B8" s="10"/>
-      <c r="C8" s="7" t="s">
+      <c r="B8" s="18"/>
+      <c r="C8" s="15" t="s">
         <v>16</v>
       </c>
       <c r="D8" s="3">
@@ -1274,8 +1854,8 @@
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B9" s="10"/>
-      <c r="C9" s="8"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="16"/>
       <c r="D9" s="3">
         <v>7</v>
       </c>
@@ -1294,8 +1874,8 @@
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B10" s="10"/>
-      <c r="C10" s="8"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="16"/>
       <c r="D10" s="3">
         <v>8</v>
       </c>
@@ -1314,8 +1894,8 @@
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B11" s="10"/>
-      <c r="C11" s="8"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="16"/>
       <c r="D11" s="3">
         <v>9</v>
       </c>
@@ -1336,8 +1916,8 @@
       </c>
     </row>
     <row r="12" spans="2:10" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B12" s="10"/>
-      <c r="C12" s="8"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="16"/>
       <c r="D12" s="3">
         <v>10</v>
       </c>
@@ -1356,8 +1936,8 @@
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B13" s="10"/>
-      <c r="C13" s="9"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="17"/>
       <c r="D13" s="3">
         <v>11</v>
       </c>
@@ -1378,8 +1958,8 @@
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B14" s="10"/>
-      <c r="C14" s="7" t="s">
+      <c r="B14" s="18"/>
+      <c r="C14" s="15" t="s">
         <v>26</v>
       </c>
       <c r="D14" s="3">
@@ -1402,8 +1982,8 @@
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B15" s="10"/>
-      <c r="C15" s="9"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="17"/>
       <c r="D15" s="3">
         <v>13</v>
       </c>
@@ -1422,8 +2002,8 @@
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B16" s="10"/>
-      <c r="C16" s="7" t="s">
+      <c r="B16" s="18"/>
+      <c r="C16" s="15" t="s">
         <v>30</v>
       </c>
       <c r="D16" s="3">
@@ -1444,8 +2024,8 @@
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B17" s="10"/>
-      <c r="C17" s="8"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="16"/>
       <c r="D17" s="3">
         <v>15</v>
       </c>
@@ -1464,8 +2044,8 @@
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B18" s="10"/>
-      <c r="C18" s="8"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="16"/>
       <c r="D18" s="3">
         <v>16</v>
       </c>
@@ -1486,8 +2066,8 @@
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B19" s="10"/>
-      <c r="C19" s="8"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="16"/>
       <c r="D19" s="3">
         <v>17</v>
       </c>
@@ -1508,8 +2088,8 @@
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B20" s="10"/>
-      <c r="C20" s="8"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="16"/>
       <c r="D20" s="3">
         <v>18</v>
       </c>
@@ -1530,8 +2110,8 @@
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B21" s="10"/>
-      <c r="C21" s="9"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="17"/>
       <c r="D21" s="3">
         <v>19</v>
       </c>
@@ -1567,19 +2147,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I21"/>
+  <dimension ref="B2:I32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="60.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="68.375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="82.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="1"/>
+    <col min="8" max="8" width="9.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.4">
@@ -1594,169 +2176,163 @@
       <c r="F2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="15" t="s">
         <v>52</v>
       </c>
       <c r="D3" s="3">
         <v>1</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="4">
-        <v>43823</v>
-      </c>
-      <c r="I3" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H3" s="13">
+        <v>43823</v>
+      </c>
+      <c r="I3" s="7" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B4" s="10"/>
-      <c r="C4" s="8"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
       <c r="D4" s="3">
         <v>2</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="F4" s="3"/>
-      <c r="G4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="4">
-        <v>43823</v>
-      </c>
-      <c r="I4" s="6" t="s">
+      <c r="G4" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H4" s="13">
+        <v>43823</v>
+      </c>
+      <c r="I4" s="7" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B5" s="10"/>
-      <c r="C5" s="8"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
       <c r="D5" s="3">
         <v>3</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="4">
-        <v>43823</v>
-      </c>
-      <c r="I5" s="6" t="s">
+      <c r="E5" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H5" s="13">
+        <v>43823</v>
+      </c>
+      <c r="I5" s="7" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B6" s="10"/>
-      <c r="C6" s="8"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
       <c r="D6" s="3">
         <v>4</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="H6" s="4">
-        <v>43823</v>
-      </c>
-      <c r="I6" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H6" s="13">
+        <v>43823</v>
+      </c>
+      <c r="I6" s="7" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B7" s="10"/>
-      <c r="C7" s="9"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
       <c r="D7" s="3">
         <v>5</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="F7" s="3"/>
-      <c r="G7" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="H7" s="4">
-        <v>43823</v>
-      </c>
-      <c r="I7" s="6" t="s">
+      <c r="G7" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H7" s="13">
+        <v>43823</v>
+      </c>
+      <c r="I7" s="7" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B8" s="10"/>
-      <c r="C8" s="7" t="s">
-        <v>53</v>
-      </c>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
       <c r="D8" s="3">
         <v>6</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="F8" s="3"/>
-      <c r="G8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H8" s="4">
-        <v>43823</v>
-      </c>
-      <c r="I8" s="6" t="s">
+      <c r="G8" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H8" s="13">
+        <v>43823</v>
+      </c>
+      <c r="I8" s="7" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B9" s="10"/>
-      <c r="C9" s="8"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
       <c r="D9" s="3">
         <v>7</v>
       </c>
-      <c r="E9" s="3"/>
+      <c r="E9" s="10" t="s">
+        <v>68</v>
+      </c>
       <c r="F9" s="3"/>
-      <c r="G9" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H9" s="4">
-        <v>43823</v>
-      </c>
-      <c r="I9" s="6" t="s">
+      <c r="G9" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H9" s="13">
+        <v>43823</v>
+      </c>
+      <c r="I9" s="7" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B10" s="10"/>
-      <c r="C10" s="8"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="17"/>
       <c r="D10" s="3">
         <v>8</v>
       </c>
@@ -1764,259 +2340,469 @@
         <v>19</v>
       </c>
       <c r="F10" s="3"/>
-      <c r="G10" s="6" t="s">
+      <c r="G10" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="4">
-        <v>43823</v>
-      </c>
-      <c r="I10" s="6" t="s">
+      <c r="H10" s="13">
+        <v>43823</v>
+      </c>
+      <c r="I10" s="7" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B11" s="10"/>
-      <c r="C11" s="8"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="15" t="s">
+        <v>53</v>
+      </c>
       <c r="D11" s="3">
         <v>9</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H11" s="4">
-        <v>43823</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B12" s="10"/>
-      <c r="C12" s="8"/>
+      <c r="E11" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="F11" s="8"/>
+      <c r="G11" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="H11" s="14">
+        <v>43823</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
       <c r="D12" s="3">
         <v>10</v>
       </c>
-      <c r="E12" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H12" s="4">
-        <v>43823</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>50</v>
+      <c r="E12" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F12" s="8"/>
+      <c r="G12" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="H12" s="14">
+        <v>43823</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B13" s="10"/>
-      <c r="C13" s="9"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
       <c r="D13" s="3">
         <v>11</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="H13" s="4">
-        <v>43823</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B14" s="10"/>
-      <c r="C14" s="7" t="s">
-        <v>54</v>
-      </c>
+      <c r="E13" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F13" s="8"/>
+      <c r="G13" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="H13" s="14">
+        <v>43823</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
       <c r="D14" s="3">
         <v>12</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H14" s="4">
-        <v>43823</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>50</v>
+      <c r="E14" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14" s="8"/>
+      <c r="G14" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="H14" s="14">
+        <v>43823</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B15" s="10"/>
-      <c r="C15" s="9"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
       <c r="D15" s="3">
         <v>13</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="H15" s="4">
-        <v>43823</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>50</v>
+      <c r="E15" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="F15" s="8"/>
+      <c r="G15" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="H15" s="14">
+        <v>43823</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B16" s="10"/>
-      <c r="C16" s="7" t="s">
-        <v>55</v>
-      </c>
+      <c r="B16" s="16"/>
+      <c r="C16" s="17"/>
       <c r="D16" s="3">
         <v>14</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F16" s="8"/>
+      <c r="G16" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="H16" s="14">
+        <v>43823</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B17" s="16"/>
+      <c r="C17" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="3">
+        <v>16</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F17" s="8"/>
+      <c r="G17" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="H17" s="14">
+        <v>43823</v>
+      </c>
+      <c r="I17" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="3">
+        <v>17</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="F18" s="8"/>
+      <c r="G18" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="H18" s="14">
+        <v>43823</v>
+      </c>
+      <c r="I18" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="3">
+        <v>18</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="F19" s="8"/>
+      <c r="G19" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="H19" s="14">
+        <v>43823</v>
+      </c>
+      <c r="I19" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="3">
+        <v>19</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="F20" s="8"/>
+      <c r="G20" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H20" s="14">
+        <v>43823</v>
+      </c>
+      <c r="I20" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B21" s="16"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="3">
+        <v>20</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="F21" s="8"/>
+      <c r="G21" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H21" s="14">
+        <v>43823</v>
+      </c>
+      <c r="I21" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B22" s="16"/>
+      <c r="C22" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" s="3">
+        <v>21</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F22" s="8"/>
+      <c r="G22" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="H22" s="14">
+        <v>43823</v>
+      </c>
+      <c r="I22" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B23" s="16"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="3">
+        <v>22</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="F23" s="8"/>
+      <c r="G23" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H23" s="14">
+        <v>43823</v>
+      </c>
+      <c r="I23" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B24" s="16"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="3">
+        <v>23</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="F24" s="8"/>
+      <c r="G24" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="H24" s="14">
+        <v>43823</v>
+      </c>
+      <c r="I24" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B25" s="16"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="3">
+        <v>24</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="F25" s="8"/>
+      <c r="G25" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="H25" s="14">
+        <v>43823</v>
+      </c>
+      <c r="I25" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B26" s="16"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="3">
+        <v>25</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="F26" s="8"/>
+      <c r="G26" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="H26" s="14">
+        <v>43823</v>
+      </c>
+      <c r="I26" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B27" s="16"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="3">
+        <v>26</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F27" s="8"/>
+      <c r="G27" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="H27" s="14">
+        <v>43823</v>
+      </c>
+      <c r="I27" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B28" s="16"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="3">
+        <v>27</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="F28" s="8"/>
+      <c r="G28" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="H28" s="14">
+        <v>43823</v>
+      </c>
+      <c r="I28" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B29" s="16"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="3">
+        <v>28</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="F29" s="8"/>
+      <c r="G29" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H29" s="14">
+        <v>43823</v>
+      </c>
+      <c r="I29" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B30" s="16"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="3">
+        <v>29</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="F30" s="8"/>
+      <c r="G30" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="H30" s="14">
+        <v>43823</v>
+      </c>
+      <c r="I30" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B31" s="16"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="3">
+        <v>30</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="F31" s="8"/>
+      <c r="G31" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="H31" s="14">
+        <v>43823</v>
+      </c>
+      <c r="I31" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B32" s="17"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="3">
         <v>31</v>
       </c>
-      <c r="F16" s="3"/>
-      <c r="G16" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H16" s="4">
-        <v>43823</v>
-      </c>
-      <c r="I16" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B17" s="10"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="3">
-        <v>15</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H17" s="4">
-        <v>43823</v>
-      </c>
-      <c r="I17" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B18" s="10"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="3">
-        <v>16</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="H18" s="4">
-        <v>43823</v>
-      </c>
-      <c r="I18" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B19" s="10"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="3">
-        <v>17</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="H19" s="4">
-        <v>43823</v>
-      </c>
-      <c r="I19" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B20" s="10"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="3">
-        <v>18</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="H20" s="4">
-        <v>43823</v>
-      </c>
-      <c r="I20" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B21" s="10"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="3">
-        <v>19</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F21" s="3"/>
-      <c r="G21" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="H21" s="4">
-        <v>43823</v>
-      </c>
-      <c r="I21" s="6" t="s">
-        <v>50</v>
+      <c r="E32" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="F32" s="8"/>
+      <c r="G32" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H32" s="14">
+        <v>43823</v>
+      </c>
+      <c r="I32" s="12" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="B3:B21"/>
-    <mergeCell ref="C3:C7"/>
-    <mergeCell ref="C8:C13"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C16:C21"/>
+    <mergeCell ref="B3:B32"/>
+    <mergeCell ref="C22:C32"/>
+    <mergeCell ref="C3:C10"/>
+    <mergeCell ref="C11:C16"/>
+    <mergeCell ref="C17:C21"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/テスト項目/結合テスト.xlsx
+++ b/テスト項目/結合テスト.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14625" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14625"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="95">
   <si>
     <t>確認内容</t>
     <rPh sb="0" eb="2">
@@ -158,28 +158,6 @@
   <si>
     <t>3cmまでならフラグを立てない</t>
     <rPh sb="11" eb="12">
-      <t>タ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>商品を置いたとき、商品を取り除くまでフラグを立てたままにする</t>
-    <rPh sb="0" eb="2">
-      <t>ショウヒン</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ショウヒン</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ノゾ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
       <t>タ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -484,29 +462,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>*画像をグレースケール化し、送信する</t>
-    <rPh sb="1" eb="3">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ソウシン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>二値化→グレースケール化</t>
-    <rPh sb="0" eb="3">
-      <t>ニチカ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>*正しく商品追加・削除できたとき、LED青を点灯(3秒)させる</t>
     <rPh sb="1" eb="2">
       <t>タダ</t>
@@ -1242,6 +1197,22 @@
   <si>
     <t>△</t>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>手もしくは商品を感知したとき、フラグを立てる</t>
+    <rPh sb="0" eb="1">
+      <t>テ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カンチ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1680,10 +1651,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J22"/>
+  <dimension ref="B1:J21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1702,7 +1673,7 @@
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>0</v>
@@ -1723,7 +1694,7 @@
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B3" s="18" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>5</v>
@@ -1738,7 +1709,7 @@
         <v>7</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H3" s="4">
         <v>43823</v>
@@ -1780,7 +1751,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H5" s="4">
         <v>43823</v>
@@ -1796,13 +1767,13 @@
         <v>4</v>
       </c>
       <c r="E6" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="G6" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H6" s="4">
         <v>43823</v>
@@ -1818,11 +1789,11 @@
         <v>5</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H7" s="4">
         <v>43823</v>
@@ -1834,13 +1805,13 @@
     <row r="8" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B8" s="18"/>
       <c r="C8" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D8" s="3">
         <v>6</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="2" t="s">
@@ -1860,11 +1831,11 @@
         <v>7</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H9" s="4">
         <v>43823</v>
@@ -1880,11 +1851,11 @@
         <v>8</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H10" s="4">
         <v>43823</v>
@@ -1900,13 +1871,13 @@
         <v>9</v>
       </c>
       <c r="E11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="G11" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="H11" s="4">
         <v>43823</v>
@@ -1922,11 +1893,11 @@
         <v>10</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H12" s="4">
         <v>43823</v>
@@ -1942,13 +1913,13 @@
         <v>11</v>
       </c>
       <c r="E13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="G13" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H13" s="4">
         <v>43823</v>
@@ -1960,19 +1931,19 @@
     <row r="14" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B14" s="18"/>
       <c r="C14" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D14" s="3">
         <v>12</v>
       </c>
       <c r="E14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>28</v>
-      </c>
       <c r="G14" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H14" s="4">
         <v>43823</v>
@@ -1988,11 +1959,11 @@
         <v>13</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H15" s="4">
         <v>43823</v>
@@ -2004,13 +1975,13 @@
     <row r="16" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B16" s="18"/>
       <c r="C16" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D16" s="3">
         <v>14</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="2" t="s">
@@ -2030,11 +2001,11 @@
         <v>15</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H17" s="4">
         <v>43823</v>
@@ -2050,13 +2021,13 @@
         <v>16</v>
       </c>
       <c r="E18" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>34</v>
-      </c>
       <c r="G18" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H18" s="4">
         <v>43823</v>
@@ -2072,13 +2043,13 @@
         <v>17</v>
       </c>
       <c r="E19" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F19" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="G19" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H19" s="4">
         <v>43823</v>
@@ -2089,18 +2060,16 @@
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B20" s="18"/>
-      <c r="C20" s="16"/>
+      <c r="C20" s="17"/>
       <c r="D20" s="3">
         <v>18</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>38</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="F20" s="3"/>
       <c r="G20" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H20" s="4">
         <v>43823</v>
@@ -2110,35 +2079,15 @@
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B21" s="18"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="3">
-        <v>19</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F21" s="3"/>
-      <c r="G21" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H21" s="4">
-        <v>43823</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="G22" s="1"/>
+      <c r="G21" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="C3:C7"/>
     <mergeCell ref="C8:C13"/>
     <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C16:C21"/>
-    <mergeCell ref="B3:B21"/>
+    <mergeCell ref="C16:C20"/>
+    <mergeCell ref="B3:B20"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2149,8 +2098,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2168,7 +2117,7 @@
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
       <c r="D2" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>0</v>
@@ -2188,26 +2137,26 @@
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B3" s="15" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D3" s="3">
         <v>1</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H3" s="13">
         <v>43823</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.4">
@@ -2217,17 +2166,17 @@
         <v>2</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H4" s="13">
         <v>43823</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.4">
@@ -2237,17 +2186,17 @@
         <v>3</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H5" s="13">
         <v>43823</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.4">
@@ -2257,17 +2206,17 @@
         <v>4</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H6" s="13">
         <v>43823</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.4">
@@ -2277,17 +2226,17 @@
         <v>5</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H7" s="13">
         <v>43823</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.4">
@@ -2297,17 +2246,17 @@
         <v>6</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H8" s="13">
         <v>43823</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.4">
@@ -2317,17 +2266,17 @@
         <v>7</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H9" s="13">
         <v>43823</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.4">
@@ -2337,7 +2286,7 @@
         <v>8</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="7" t="s">
@@ -2347,29 +2296,29 @@
         <v>43823</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B11" s="16"/>
       <c r="C11" s="15" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D11" s="3">
         <v>9</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="12" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H11" s="14">
         <v>43823</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.4">
@@ -2379,17 +2328,17 @@
         <v>10</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F12" s="8"/>
       <c r="G12" s="12" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H12" s="14">
         <v>43823</v>
       </c>
       <c r="I12" s="12" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.4">
@@ -2399,17 +2348,17 @@
         <v>11</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F13" s="8"/>
       <c r="G13" s="12" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H13" s="14">
         <v>43823</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="2:9" ht="37.5" x14ac:dyDescent="0.4">
@@ -2419,17 +2368,17 @@
         <v>12</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F14" s="8"/>
       <c r="G14" s="12" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H14" s="14">
         <v>43823</v>
       </c>
       <c r="I14" s="12" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.4">
@@ -2439,17 +2388,17 @@
         <v>13</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F15" s="8"/>
       <c r="G15" s="12" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H15" s="14">
         <v>43823</v>
       </c>
       <c r="I15" s="12" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.4">
@@ -2459,39 +2408,39 @@
         <v>14</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F16" s="8"/>
       <c r="G16" s="12" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H16" s="14">
         <v>43823</v>
       </c>
       <c r="I16" s="12" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B17" s="16"/>
       <c r="C17" s="15" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D17" s="3">
         <v>16</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F17" s="8"/>
       <c r="G17" s="12" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H17" s="14">
         <v>43823</v>
       </c>
       <c r="I17" s="12" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.4">
@@ -2501,17 +2450,17 @@
         <v>17</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F18" s="8"/>
       <c r="G18" s="12" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H18" s="14">
         <v>43823</v>
       </c>
       <c r="I18" s="12" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.4">
@@ -2521,17 +2470,17 @@
         <v>18</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F19" s="8"/>
       <c r="G19" s="12" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H19" s="14">
         <v>43823</v>
       </c>
       <c r="I19" s="12" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.4">
@@ -2541,17 +2490,17 @@
         <v>19</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F20" s="8"/>
       <c r="G20" s="12" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H20" s="14">
         <v>43823</v>
       </c>
       <c r="I20" s="12" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.4">
@@ -2561,39 +2510,39 @@
         <v>20</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F21" s="8"/>
       <c r="G21" s="12" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H21" s="14">
         <v>43823</v>
       </c>
       <c r="I21" s="12" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B22" s="16"/>
       <c r="C22" s="18" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D22" s="3">
         <v>21</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F22" s="8"/>
       <c r="G22" s="12" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H22" s="14">
         <v>43823</v>
       </c>
       <c r="I22" s="12" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.4">
@@ -2603,17 +2552,17 @@
         <v>22</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F23" s="8"/>
       <c r="G23" s="12" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H23" s="14">
         <v>43823</v>
       </c>
       <c r="I23" s="12" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.4">
@@ -2623,17 +2572,17 @@
         <v>23</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F24" s="8"/>
       <c r="G24" s="12" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H24" s="14">
         <v>43823</v>
       </c>
       <c r="I24" s="12" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.4">
@@ -2643,17 +2592,17 @@
         <v>24</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F25" s="8"/>
       <c r="G25" s="12" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H25" s="14">
         <v>43823</v>
       </c>
       <c r="I25" s="12" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.4">
@@ -2663,17 +2612,17 @@
         <v>25</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F26" s="8"/>
       <c r="G26" s="12" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H26" s="14">
         <v>43823</v>
       </c>
       <c r="I26" s="12" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.4">
@@ -2683,17 +2632,17 @@
         <v>26</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F27" s="8"/>
       <c r="G27" s="12" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H27" s="14">
         <v>43823</v>
       </c>
       <c r="I27" s="12" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.4">
@@ -2703,17 +2652,17 @@
         <v>27</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F28" s="8"/>
       <c r="G28" s="12" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H28" s="14">
         <v>43823</v>
       </c>
       <c r="I28" s="12" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.4">
@@ -2723,17 +2672,17 @@
         <v>28</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F29" s="8"/>
       <c r="G29" s="12" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H29" s="14">
         <v>43823</v>
       </c>
       <c r="I29" s="12" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.4">
@@ -2743,17 +2692,17 @@
         <v>29</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F30" s="8"/>
       <c r="G30" s="12" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H30" s="14">
         <v>43823</v>
       </c>
       <c r="I30" s="12" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.4">
@@ -2763,17 +2712,17 @@
         <v>30</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F31" s="8"/>
       <c r="G31" s="12" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H31" s="14">
         <v>43823</v>
       </c>
       <c r="I31" s="12" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.4">
@@ -2783,17 +2732,17 @@
         <v>31</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F32" s="8"/>
       <c r="G32" s="12" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H32" s="14">
         <v>43823</v>
       </c>
       <c r="I32" s="12" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/テスト項目/結合テスト.xlsx
+++ b/テスト項目/結合テスト.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\B4_2019\Documents\GitHub\YoloBarcodeReader\テスト項目\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\YoloBarcodeReader\テスト項目\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14625"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14625" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="88">
   <si>
     <t>確認内容</t>
     <rPh sb="0" eb="2">
@@ -844,76 +844,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ブレのないバーコード画像を50%識別できる</t>
-    <rPh sb="10" eb="12">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>シキベツ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>×</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>画像にブレやぼやけのあるバーコード画像をN%識別できる</t>
-    <rPh sb="0" eb="2">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>シキベツ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>×</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>カメラから15cm離れて撮ったバーコード画像の検知率が80%</t>
-    <rPh sb="9" eb="10">
-      <t>ハナ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ケンチ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>リツ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>×</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>カメラから40cm離れて撮ったバーコード画像の検知率が25%</t>
-    <rPh sb="9" eb="10">
-      <t>ハナ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ケンチ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>リツ</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1068,28 +999,6 @@
     </rPh>
     <rPh sb="15" eb="16">
       <t>カエ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1つしか登録しない予定の商品が誤って複数登録されないようにする</t>
-    <rPh sb="4" eb="6">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ヨテイ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ショウヒン</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>アヤマ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>フクスウ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>トウロク</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1317,7 +1226,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1358,6 +1267,9 @@
     </xf>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1653,7 +1565,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
@@ -1693,10 +1605,10 @@
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="16" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="3">
@@ -1719,8 +1631,8 @@
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B4" s="18"/>
-      <c r="C4" s="16"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="17"/>
       <c r="D4" s="3">
         <v>2</v>
       </c>
@@ -1739,8 +1651,8 @@
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B5" s="18"/>
-      <c r="C5" s="16"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="17"/>
       <c r="D5" s="3">
         <v>3</v>
       </c>
@@ -1761,13 +1673,13 @@
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B6" s="18"/>
-      <c r="C6" s="16"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="17"/>
       <c r="D6" s="3">
         <v>4</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>13</v>
@@ -1783,8 +1695,8 @@
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B7" s="18"/>
-      <c r="C7" s="17"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="18"/>
       <c r="D7" s="3">
         <v>5</v>
       </c>
@@ -1803,8 +1715,8 @@
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B8" s="18"/>
-      <c r="C8" s="15" t="s">
+      <c r="B8" s="19"/>
+      <c r="C8" s="16" t="s">
         <v>15</v>
       </c>
       <c r="D8" s="3">
@@ -1825,8 +1737,8 @@
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B9" s="18"/>
-      <c r="C9" s="16"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="17"/>
       <c r="D9" s="3">
         <v>7</v>
       </c>
@@ -1845,8 +1757,8 @@
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B10" s="18"/>
-      <c r="C10" s="16"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="17"/>
       <c r="D10" s="3">
         <v>8</v>
       </c>
@@ -1865,8 +1777,8 @@
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B11" s="18"/>
-      <c r="C11" s="16"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="17"/>
       <c r="D11" s="3">
         <v>9</v>
       </c>
@@ -1887,8 +1799,8 @@
       </c>
     </row>
     <row r="12" spans="2:10" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B12" s="18"/>
-      <c r="C12" s="16"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="17"/>
       <c r="D12" s="3">
         <v>10</v>
       </c>
@@ -1907,8 +1819,8 @@
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B13" s="18"/>
-      <c r="C13" s="17"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="18"/>
       <c r="D13" s="3">
         <v>11</v>
       </c>
@@ -1929,8 +1841,8 @@
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B14" s="18"/>
-      <c r="C14" s="15" t="s">
+      <c r="B14" s="19"/>
+      <c r="C14" s="16" t="s">
         <v>25</v>
       </c>
       <c r="D14" s="3">
@@ -1953,8 +1865,8 @@
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B15" s="18"/>
-      <c r="C15" s="17"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="18"/>
       <c r="D15" s="3">
         <v>13</v>
       </c>
@@ -1973,8 +1885,8 @@
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B16" s="18"/>
-      <c r="C16" s="15" t="s">
+      <c r="B16" s="19"/>
+      <c r="C16" s="16" t="s">
         <v>29</v>
       </c>
       <c r="D16" s="3">
@@ -1995,8 +1907,8 @@
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B17" s="18"/>
-      <c r="C17" s="16"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="17"/>
       <c r="D17" s="3">
         <v>15</v>
       </c>
@@ -2015,8 +1927,8 @@
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B18" s="18"/>
-      <c r="C18" s="16"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="17"/>
       <c r="D18" s="3">
         <v>16</v>
       </c>
@@ -2037,8 +1949,8 @@
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B19" s="18"/>
-      <c r="C19" s="16"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="17"/>
       <c r="D19" s="3">
         <v>17</v>
       </c>
@@ -2059,8 +1971,8 @@
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B20" s="18"/>
-      <c r="C20" s="17"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="18"/>
       <c r="D20" s="3">
         <v>18</v>
       </c>
@@ -2096,16 +2008,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I32"/>
+  <dimension ref="B2:I27"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="3" max="3" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.125" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="68.375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="82.75" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="1"/>
@@ -2136,10 +2048,10 @@
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="16" t="s">
         <v>49</v>
       </c>
       <c r="D3" s="3">
@@ -2160,8 +2072,8 @@
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
       <c r="D4" s="3">
         <v>2</v>
       </c>
@@ -2180,8 +2092,8 @@
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
       <c r="D5" s="3">
         <v>3</v>
       </c>
@@ -2200,8 +2112,8 @@
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
       <c r="D6" s="3">
         <v>4</v>
       </c>
@@ -2220,8 +2132,8 @@
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
       <c r="D7" s="3">
         <v>5</v>
       </c>
@@ -2240,8 +2152,8 @@
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
       <c r="D8" s="3">
         <v>6</v>
       </c>
@@ -2260,8 +2172,8 @@
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
       <c r="D9" s="3">
         <v>7</v>
       </c>
@@ -2280,8 +2192,8 @@
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B10" s="16"/>
-      <c r="C10" s="17"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="18"/>
       <c r="D10" s="3">
         <v>8</v>
       </c>
@@ -2300,19 +2212,19 @@
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B11" s="16"/>
-      <c r="C11" s="15" t="s">
+      <c r="B11" s="17"/>
+      <c r="C11" s="16" t="s">
         <v>50</v>
       </c>
       <c r="D11" s="3">
         <v>9</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="12" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="H11" s="14">
         <v>43823</v>
@@ -2322,17 +2234,17 @@
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
       <c r="D12" s="3">
         <v>10</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="F12" s="8"/>
       <c r="G12" s="12" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="H12" s="14">
         <v>43823</v>
@@ -2342,17 +2254,17 @@
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
       <c r="D13" s="3">
         <v>11</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="F13" s="8"/>
       <c r="G13" s="12" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="H13" s="14">
         <v>43823</v>
@@ -2362,8 +2274,8 @@
       </c>
     </row>
     <row r="14" spans="2:9" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
       <c r="D14" s="3">
         <v>12</v>
       </c>
@@ -2372,7 +2284,7 @@
       </c>
       <c r="F14" s="8"/>
       <c r="G14" s="12" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="H14" s="14">
         <v>43823</v>
@@ -2381,18 +2293,18 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
+    <row r="15" spans="2:9" hidden="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
       <c r="D15" s="3">
         <v>13</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="F15" s="8"/>
       <c r="G15" s="12" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="H15" s="14">
         <v>43823</v>
@@ -2401,9 +2313,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B16" s="16"/>
-      <c r="C16" s="17"/>
+    <row r="16" spans="2:9" hidden="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="17"/>
+      <c r="C16" s="18"/>
       <c r="D16" s="3">
         <v>14</v>
       </c>
@@ -2412,7 +2324,7 @@
       </c>
       <c r="F16" s="8"/>
       <c r="G16" s="12" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="H16" s="14">
         <v>43823</v>
@@ -2422,12 +2334,12 @@
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B17" s="16"/>
+      <c r="B17" s="17"/>
       <c r="C17" s="15" t="s">
         <v>51</v>
       </c>
       <c r="D17" s="3">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E17" s="8" t="s">
         <v>68</v>
@@ -2444,17 +2356,19 @@
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="19" t="s">
+        <v>52</v>
+      </c>
       <c r="D18" s="3">
         <v>17</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F18" s="8"/>
       <c r="G18" s="12" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="H18" s="14">
         <v>43823</v>
@@ -2464,8 +2378,8 @@
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="19"/>
       <c r="D19" s="3">
         <v>18</v>
       </c>
@@ -2474,7 +2388,7 @@
       </c>
       <c r="F19" s="8"/>
       <c r="G19" s="12" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="H19" s="14">
         <v>43823</v>
@@ -2484,17 +2398,17 @@
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="19"/>
       <c r="D20" s="3">
         <v>19</v>
       </c>
-      <c r="E20" s="11" t="s">
-        <v>73</v>
+      <c r="E20" s="8" t="s">
+        <v>72</v>
       </c>
       <c r="F20" s="8"/>
       <c r="G20" s="12" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="H20" s="14">
         <v>43823</v>
@@ -2504,17 +2418,17 @@
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B21" s="16"/>
-      <c r="C21" s="17"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="19"/>
       <c r="D21" s="3">
         <v>20</v>
       </c>
-      <c r="E21" s="11" t="s">
-        <v>75</v>
+      <c r="E21" s="8" t="s">
+        <v>73</v>
       </c>
       <c r="F21" s="8"/>
       <c r="G21" s="12" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="H21" s="14">
         <v>43823</v>
@@ -2524,15 +2438,13 @@
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B22" s="16"/>
-      <c r="C22" s="18" t="s">
-        <v>52</v>
-      </c>
+      <c r="B22" s="17"/>
+      <c r="C22" s="19"/>
       <c r="D22" s="3">
         <v>21</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F22" s="8"/>
       <c r="G22" s="12" t="s">
@@ -2546,17 +2458,17 @@
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B23" s="16"/>
-      <c r="C23" s="18"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="19"/>
       <c r="D23" s="3">
         <v>22</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F23" s="8"/>
       <c r="G23" s="12" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="H23" s="14">
         <v>43823</v>
@@ -2566,17 +2478,17 @@
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B24" s="16"/>
-      <c r="C24" s="18"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="19"/>
       <c r="D24" s="3">
         <v>23</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F24" s="8"/>
       <c r="G24" s="12" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="H24" s="14">
         <v>43823</v>
@@ -2586,17 +2498,17 @@
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B25" s="16"/>
-      <c r="C25" s="18"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="19"/>
       <c r="D25" s="3">
         <v>24</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F25" s="8"/>
       <c r="G25" s="12" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="H25" s="14">
         <v>43823</v>
@@ -2606,13 +2518,13 @@
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B26" s="16"/>
-      <c r="C26" s="18"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="19"/>
       <c r="D26" s="3">
-        <v>25</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>80</v>
+        <v>26</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>78</v>
       </c>
       <c r="F26" s="8"/>
       <c r="G26" s="12" t="s">
@@ -2626,17 +2538,17 @@
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B27" s="16"/>
-      <c r="C27" s="18"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="19"/>
       <c r="D27" s="3">
-        <v>26</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>81</v>
+        <v>27</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>79</v>
       </c>
       <c r="F27" s="8"/>
       <c r="G27" s="12" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="H27" s="14">
         <v>43823</v>
@@ -2645,113 +2557,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B28" s="16"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="3">
-        <v>27</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="F28" s="8"/>
-      <c r="G28" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="H28" s="14">
-        <v>43823</v>
-      </c>
-      <c r="I28" s="12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B29" s="16"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="3">
-        <v>28</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="F29" s="8"/>
-      <c r="G29" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="H29" s="14">
-        <v>43823</v>
-      </c>
-      <c r="I29" s="12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B30" s="16"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="3">
-        <v>29</v>
-      </c>
-      <c r="E30" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="F30" s="8"/>
-      <c r="G30" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="H30" s="14">
-        <v>43823</v>
-      </c>
-      <c r="I30" s="12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B31" s="16"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="3">
-        <v>30</v>
-      </c>
-      <c r="E31" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="F31" s="8"/>
-      <c r="G31" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="H31" s="14">
-        <v>43823</v>
-      </c>
-      <c r="I31" s="12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B32" s="17"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="3">
-        <v>31</v>
-      </c>
-      <c r="E32" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="F32" s="8"/>
-      <c r="G32" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="H32" s="14">
-        <v>43823</v>
-      </c>
-      <c r="I32" s="12" t="s">
-        <v>53</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="B3:B32"/>
-    <mergeCell ref="C22:C32"/>
+  <mergeCells count="4">
+    <mergeCell ref="B3:B27"/>
+    <mergeCell ref="C18:C27"/>
     <mergeCell ref="C3:C10"/>
     <mergeCell ref="C11:C16"/>
-    <mergeCell ref="C17:C21"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/テスト項目/結合テスト.xlsx
+++ b/テスト項目/結合テスト.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\YoloBarcodeReader\テスト項目\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\B4_2019\Documents\GitHub\YoloBarcodeReader\テスト項目\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1226,7 +1226,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1264,9 +1264,6 @@
     </xf>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1566,7 +1563,7 @@
   <dimension ref="B1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="H3" sqref="H3:H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1605,10 +1602,10 @@
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="3">
@@ -1624,15 +1621,15 @@
         <v>38</v>
       </c>
       <c r="H3" s="4">
-        <v>43823</v>
+        <v>43825</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B4" s="19"/>
-      <c r="C4" s="17"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="16"/>
       <c r="D4" s="3">
         <v>2</v>
       </c>
@@ -1644,15 +1641,15 @@
         <v>10</v>
       </c>
       <c r="H4" s="4">
-        <v>43823</v>
+        <v>43825</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B5" s="19"/>
-      <c r="C5" s="17"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="16"/>
       <c r="D5" s="3">
         <v>3</v>
       </c>
@@ -1666,15 +1663,15 @@
         <v>21</v>
       </c>
       <c r="H5" s="4">
-        <v>43823</v>
+        <v>43825</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B6" s="19"/>
-      <c r="C6" s="17"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="16"/>
       <c r="D6" s="3">
         <v>4</v>
       </c>
@@ -1688,15 +1685,15 @@
         <v>39</v>
       </c>
       <c r="H6" s="4">
-        <v>43823</v>
+        <v>43825</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B7" s="19"/>
-      <c r="C7" s="18"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="17"/>
       <c r="D7" s="3">
         <v>5</v>
       </c>
@@ -1708,15 +1705,15 @@
         <v>40</v>
       </c>
       <c r="H7" s="4">
-        <v>43823</v>
+        <v>43825</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B8" s="19"/>
-      <c r="C8" s="16" t="s">
+      <c r="B8" s="18"/>
+      <c r="C8" s="15" t="s">
         <v>15</v>
       </c>
       <c r="D8" s="3">
@@ -1730,15 +1727,15 @@
         <v>10</v>
       </c>
       <c r="H8" s="4">
-        <v>43823</v>
+        <v>43825</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B9" s="19"/>
-      <c r="C9" s="17"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="16"/>
       <c r="D9" s="3">
         <v>7</v>
       </c>
@@ -1750,15 +1747,15 @@
         <v>21</v>
       </c>
       <c r="H9" s="4">
-        <v>43823</v>
+        <v>43825</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B10" s="19"/>
-      <c r="C10" s="17"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="16"/>
       <c r="D10" s="3">
         <v>8</v>
       </c>
@@ -1770,15 +1767,15 @@
         <v>21</v>
       </c>
       <c r="H10" s="4">
-        <v>43823</v>
+        <v>43825</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B11" s="19"/>
-      <c r="C11" s="17"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="16"/>
       <c r="D11" s="3">
         <v>9</v>
       </c>
@@ -1792,15 +1789,15 @@
         <v>21</v>
       </c>
       <c r="H11" s="4">
-        <v>43823</v>
+        <v>43825</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="2:10" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B12" s="19"/>
-      <c r="C12" s="17"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="16"/>
       <c r="D12" s="3">
         <v>10</v>
       </c>
@@ -1812,15 +1809,15 @@
         <v>21</v>
       </c>
       <c r="H12" s="4">
-        <v>43823</v>
+        <v>43825</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B13" s="19"/>
-      <c r="C13" s="18"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="17"/>
       <c r="D13" s="3">
         <v>11</v>
       </c>
@@ -1834,15 +1831,15 @@
         <v>41</v>
       </c>
       <c r="H13" s="4">
-        <v>43823</v>
+        <v>43825</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B14" s="19"/>
-      <c r="C14" s="16" t="s">
+      <c r="B14" s="18"/>
+      <c r="C14" s="15" t="s">
         <v>25</v>
       </c>
       <c r="D14" s="3">
@@ -1858,15 +1855,15 @@
         <v>42</v>
       </c>
       <c r="H14" s="4">
-        <v>43823</v>
+        <v>43825</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B15" s="19"/>
-      <c r="C15" s="18"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="17"/>
       <c r="D15" s="3">
         <v>13</v>
       </c>
@@ -1878,15 +1875,15 @@
         <v>41</v>
       </c>
       <c r="H15" s="4">
-        <v>43823</v>
+        <v>43825</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B16" s="19"/>
-      <c r="C16" s="16" t="s">
+      <c r="B16" s="18"/>
+      <c r="C16" s="15" t="s">
         <v>29</v>
       </c>
       <c r="D16" s="3">
@@ -1900,15 +1897,15 @@
         <v>10</v>
       </c>
       <c r="H16" s="4">
-        <v>43823</v>
+        <v>43825</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B17" s="19"/>
-      <c r="C17" s="17"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="16"/>
       <c r="D17" s="3">
         <v>15</v>
       </c>
@@ -1920,15 +1917,15 @@
         <v>43</v>
       </c>
       <c r="H17" s="4">
-        <v>43823</v>
+        <v>43825</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B18" s="19"/>
-      <c r="C18" s="17"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="16"/>
       <c r="D18" s="3">
         <v>16</v>
       </c>
@@ -1942,15 +1939,15 @@
         <v>45</v>
       </c>
       <c r="H18" s="4">
-        <v>43823</v>
+        <v>43825</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B19" s="19"/>
-      <c r="C19" s="17"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="16"/>
       <c r="D19" s="3">
         <v>17</v>
       </c>
@@ -1964,15 +1961,15 @@
         <v>44</v>
       </c>
       <c r="H19" s="4">
-        <v>43823</v>
+        <v>43825</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B20" s="19"/>
-      <c r="C20" s="18"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="17"/>
       <c r="D20" s="3">
         <v>18</v>
       </c>
@@ -1984,7 +1981,7 @@
         <v>44</v>
       </c>
       <c r="H20" s="4">
-        <v>43823</v>
+        <v>43825</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>8</v>
@@ -2011,7 +2008,7 @@
   <dimension ref="B2:I27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2019,7 +2016,7 @@
     <col min="3" max="3" width="15.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.125" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="68.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="82.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="1"/>
     <col min="8" max="8" width="9.25" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9" style="1"/>
@@ -2048,10 +2045,10 @@
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="15" t="s">
         <v>49</v>
       </c>
       <c r="D3" s="3">
@@ -2065,15 +2062,15 @@
         <v>58</v>
       </c>
       <c r="H3" s="13">
-        <v>43823</v>
+        <v>43825</v>
       </c>
       <c r="I3" s="7" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
       <c r="D4" s="3">
         <v>2</v>
       </c>
@@ -2085,15 +2082,15 @@
         <v>60</v>
       </c>
       <c r="H4" s="13">
-        <v>43823</v>
+        <v>43825</v>
       </c>
       <c r="I4" s="7" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
       <c r="D5" s="3">
         <v>3</v>
       </c>
@@ -2105,15 +2102,15 @@
         <v>58</v>
       </c>
       <c r="H5" s="13">
-        <v>43823</v>
+        <v>43825</v>
       </c>
       <c r="I5" s="7" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
       <c r="D6" s="3">
         <v>4</v>
       </c>
@@ -2125,15 +2122,15 @@
         <v>58</v>
       </c>
       <c r="H6" s="13">
-        <v>43823</v>
+        <v>43825</v>
       </c>
       <c r="I6" s="7" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
       <c r="D7" s="3">
         <v>5</v>
       </c>
@@ -2145,15 +2142,15 @@
         <v>60</v>
       </c>
       <c r="H7" s="13">
-        <v>43823</v>
+        <v>43825</v>
       </c>
       <c r="I7" s="7" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
       <c r="D8" s="3">
         <v>6</v>
       </c>
@@ -2165,15 +2162,15 @@
         <v>58</v>
       </c>
       <c r="H8" s="13">
-        <v>43823</v>
+        <v>43825</v>
       </c>
       <c r="I8" s="7" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
       <c r="D9" s="3">
         <v>7</v>
       </c>
@@ -2185,15 +2182,15 @@
         <v>66</v>
       </c>
       <c r="H9" s="13">
-        <v>43823</v>
+        <v>43825</v>
       </c>
       <c r="I9" s="7" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B10" s="17"/>
-      <c r="C10" s="18"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="17"/>
       <c r="D10" s="3">
         <v>8</v>
       </c>
@@ -2205,15 +2202,15 @@
         <v>10</v>
       </c>
       <c r="H10" s="13">
-        <v>43823</v>
+        <v>43825</v>
       </c>
       <c r="I10" s="7" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B11" s="17"/>
-      <c r="C11" s="16" t="s">
+      <c r="B11" s="16"/>
+      <c r="C11" s="15" t="s">
         <v>50</v>
       </c>
       <c r="D11" s="3">
@@ -2226,16 +2223,16 @@
       <c r="G11" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="H11" s="14">
-        <v>43823</v>
+      <c r="H11" s="13">
+        <v>43825</v>
       </c>
       <c r="I11" s="12" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
       <c r="D12" s="3">
         <v>10</v>
       </c>
@@ -2246,16 +2243,16 @@
       <c r="G12" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="H12" s="14">
-        <v>43823</v>
+      <c r="H12" s="13">
+        <v>43825</v>
       </c>
       <c r="I12" s="12" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
       <c r="D13" s="3">
         <v>11</v>
       </c>
@@ -2266,16 +2263,16 @@
       <c r="G13" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="H13" s="14">
-        <v>43823</v>
+      <c r="H13" s="13">
+        <v>43825</v>
       </c>
       <c r="I13" s="12" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="14" spans="2:9" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
       <c r="D14" s="3">
         <v>12</v>
       </c>
@@ -2286,16 +2283,16 @@
       <c r="G14" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="H14" s="14">
-        <v>43823</v>
+      <c r="H14" s="13">
+        <v>43825</v>
       </c>
       <c r="I14" s="12" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="15" spans="2:9" hidden="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
       <c r="D15" s="3">
         <v>13</v>
       </c>
@@ -2306,16 +2303,16 @@
       <c r="G15" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="H15" s="14">
-        <v>43823</v>
+      <c r="H15" s="13">
+        <v>43825</v>
       </c>
       <c r="I15" s="12" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="16" spans="2:9" hidden="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="17"/>
-      <c r="C16" s="18"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="17"/>
       <c r="D16" s="3">
         <v>14</v>
       </c>
@@ -2326,16 +2323,16 @@
       <c r="G16" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="H16" s="14">
-        <v>43823</v>
+      <c r="H16" s="13">
+        <v>43825</v>
       </c>
       <c r="I16" s="12" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B17" s="17"/>
-      <c r="C17" s="15" t="s">
+      <c r="B17" s="16"/>
+      <c r="C17" s="14" t="s">
         <v>51</v>
       </c>
       <c r="D17" s="3">
@@ -2348,16 +2345,16 @@
       <c r="G17" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="H17" s="14">
-        <v>43823</v>
+      <c r="H17" s="13">
+        <v>43825</v>
       </c>
       <c r="I17" s="12" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B18" s="17"/>
-      <c r="C18" s="19" t="s">
+      <c r="B18" s="16"/>
+      <c r="C18" s="18" t="s">
         <v>52</v>
       </c>
       <c r="D18" s="3">
@@ -2370,16 +2367,16 @@
       <c r="G18" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="H18" s="14">
-        <v>43823</v>
+      <c r="H18" s="13">
+        <v>43825</v>
       </c>
       <c r="I18" s="12" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B19" s="17"/>
-      <c r="C19" s="19"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="18"/>
       <c r="D19" s="3">
         <v>18</v>
       </c>
@@ -2390,16 +2387,16 @@
       <c r="G19" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="H19" s="14">
-        <v>43823</v>
+      <c r="H19" s="13">
+        <v>43825</v>
       </c>
       <c r="I19" s="12" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B20" s="17"/>
-      <c r="C20" s="19"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="18"/>
       <c r="D20" s="3">
         <v>19</v>
       </c>
@@ -2410,16 +2407,16 @@
       <c r="G20" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="H20" s="14">
-        <v>43823</v>
+      <c r="H20" s="13">
+        <v>43825</v>
       </c>
       <c r="I20" s="12" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B21" s="17"/>
-      <c r="C21" s="19"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="18"/>
       <c r="D21" s="3">
         <v>20</v>
       </c>
@@ -2430,16 +2427,16 @@
       <c r="G21" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="H21" s="14">
-        <v>43823</v>
+      <c r="H21" s="13">
+        <v>43825</v>
       </c>
       <c r="I21" s="12" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B22" s="17"/>
-      <c r="C22" s="19"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="18"/>
       <c r="D22" s="3">
         <v>21</v>
       </c>
@@ -2450,16 +2447,16 @@
       <c r="G22" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="H22" s="14">
-        <v>43823</v>
+      <c r="H22" s="13">
+        <v>43825</v>
       </c>
       <c r="I22" s="12" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B23" s="17"/>
-      <c r="C23" s="19"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="18"/>
       <c r="D23" s="3">
         <v>22</v>
       </c>
@@ -2470,16 +2467,16 @@
       <c r="G23" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="H23" s="14">
-        <v>43823</v>
+      <c r="H23" s="13">
+        <v>43825</v>
       </c>
       <c r="I23" s="12" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B24" s="17"/>
-      <c r="C24" s="19"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="18"/>
       <c r="D24" s="3">
         <v>23</v>
       </c>
@@ -2490,16 +2487,16 @@
       <c r="G24" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="H24" s="14">
-        <v>43823</v>
+      <c r="H24" s="13">
+        <v>43825</v>
       </c>
       <c r="I24" s="12" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B25" s="17"/>
-      <c r="C25" s="19"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="18"/>
       <c r="D25" s="3">
         <v>24</v>
       </c>
@@ -2510,16 +2507,16 @@
       <c r="G25" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="H25" s="14">
-        <v>43823</v>
+      <c r="H25" s="13">
+        <v>43825</v>
       </c>
       <c r="I25" s="12" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B26" s="17"/>
-      <c r="C26" s="19"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="18"/>
       <c r="D26" s="3">
         <v>26</v>
       </c>
@@ -2530,16 +2527,16 @@
       <c r="G26" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="H26" s="14">
-        <v>43823</v>
+      <c r="H26" s="13">
+        <v>43825</v>
       </c>
       <c r="I26" s="12" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B27" s="18"/>
-      <c r="C27" s="19"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="18"/>
       <c r="D27" s="3">
         <v>27</v>
       </c>
@@ -2550,8 +2547,8 @@
       <c r="G27" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="H27" s="14">
-        <v>43823</v>
+      <c r="H27" s="13">
+        <v>43825</v>
       </c>
       <c r="I27" s="12" t="s">
         <v>53</v>

--- a/テスト項目/結合テスト.xlsx
+++ b/テスト項目/結合テスト.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14625" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14625"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="86">
   <si>
     <t>確認内容</t>
     <rPh sb="0" eb="2">
@@ -560,10 +560,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>×</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>〇</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -573,14 +569,6 @@
   </si>
   <si>
     <t>〇</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>×</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>×</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1121,6 +1109,10 @@
     <rPh sb="19" eb="20">
       <t>タ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>△</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1226,7 +1218,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1266,6 +1258,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1562,8 +1557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3:H20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H20" sqref="C2:H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1571,7 +1566,7 @@
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="60.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="82.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="82.75" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="9.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1602,10 +1597,10 @@
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B3" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" s="15" t="s">
+      <c r="B3" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="16" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="3">
@@ -1628,8 +1623,8 @@
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B4" s="18"/>
-      <c r="C4" s="16"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="17"/>
       <c r="D4" s="3">
         <v>2</v>
       </c>
@@ -1648,8 +1643,8 @@
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B5" s="18"/>
-      <c r="C5" s="16"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="17"/>
       <c r="D5" s="3">
         <v>3</v>
       </c>
@@ -1670,13 +1665,13 @@
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B6" s="18"/>
-      <c r="C6" s="16"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="17"/>
       <c r="D6" s="3">
         <v>4</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>13</v>
@@ -1692,8 +1687,8 @@
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B7" s="18"/>
-      <c r="C7" s="17"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="18"/>
       <c r="D7" s="3">
         <v>5</v>
       </c>
@@ -1701,19 +1696,19 @@
         <v>14</v>
       </c>
       <c r="F7" s="3"/>
-      <c r="G7" s="2" t="s">
-        <v>40</v>
+      <c r="G7" s="15" t="s">
+        <v>39</v>
       </c>
       <c r="H7" s="4">
-        <v>43825</v>
+        <v>43826</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B8" s="18"/>
-      <c r="C8" s="15" t="s">
+      <c r="B8" s="19"/>
+      <c r="C8" s="16" t="s">
         <v>15</v>
       </c>
       <c r="D8" s="3">
@@ -1734,8 +1729,8 @@
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B9" s="18"/>
-      <c r="C9" s="16"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="17"/>
       <c r="D9" s="3">
         <v>7</v>
       </c>
@@ -1754,8 +1749,8 @@
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B10" s="18"/>
-      <c r="C10" s="16"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="17"/>
       <c r="D10" s="3">
         <v>8</v>
       </c>
@@ -1774,8 +1769,8 @@
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B11" s="18"/>
-      <c r="C11" s="16"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="17"/>
       <c r="D11" s="3">
         <v>9</v>
       </c>
@@ -1796,8 +1791,8 @@
       </c>
     </row>
     <row r="12" spans="2:10" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B12" s="18"/>
-      <c r="C12" s="16"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="17"/>
       <c r="D12" s="3">
         <v>10</v>
       </c>
@@ -1816,8 +1811,8 @@
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B13" s="18"/>
-      <c r="C13" s="17"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="18"/>
       <c r="D13" s="3">
         <v>11</v>
       </c>
@@ -1828,7 +1823,7 @@
         <v>24</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H13" s="4">
         <v>43825</v>
@@ -1838,8 +1833,8 @@
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B14" s="18"/>
-      <c r="C14" s="15" t="s">
+      <c r="B14" s="19"/>
+      <c r="C14" s="16" t="s">
         <v>25</v>
       </c>
       <c r="D14" s="3">
@@ -1852,7 +1847,7 @@
         <v>27</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H14" s="4">
         <v>43825</v>
@@ -1862,8 +1857,8 @@
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B15" s="18"/>
-      <c r="C15" s="17"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="18"/>
       <c r="D15" s="3">
         <v>13</v>
       </c>
@@ -1872,7 +1867,7 @@
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H15" s="4">
         <v>43825</v>
@@ -1882,8 +1877,8 @@
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B16" s="18"/>
-      <c r="C16" s="15" t="s">
+      <c r="B16" s="19"/>
+      <c r="C16" s="16" t="s">
         <v>29</v>
       </c>
       <c r="D16" s="3">
@@ -1904,8 +1899,8 @@
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B17" s="18"/>
-      <c r="C17" s="16"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="17"/>
       <c r="D17" s="3">
         <v>15</v>
       </c>
@@ -1914,18 +1909,18 @@
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H17" s="4">
-        <v>43825</v>
+        <v>43826</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B18" s="18"/>
-      <c r="C18" s="16"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="17"/>
       <c r="D18" s="3">
         <v>16</v>
       </c>
@@ -1935,19 +1930,19 @@
       <c r="F18" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G18" s="2" t="s">
-        <v>45</v>
+      <c r="G18" s="15" t="s">
+        <v>42</v>
       </c>
       <c r="H18" s="4">
-        <v>43825</v>
+        <v>43826</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B19" s="18"/>
-      <c r="C19" s="16"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="17"/>
       <c r="D19" s="3">
         <v>17</v>
       </c>
@@ -1958,18 +1953,18 @@
         <v>35</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="H19" s="4">
-        <v>43825</v>
+        <v>43826</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B20" s="18"/>
-      <c r="C20" s="17"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="18"/>
       <c r="D20" s="3">
         <v>18</v>
       </c>
@@ -1977,11 +1972,11 @@
         <v>36</v>
       </c>
       <c r="F20" s="3"/>
-      <c r="G20" s="2" t="s">
-        <v>44</v>
+      <c r="G20" s="15" t="s">
+        <v>85</v>
       </c>
       <c r="H20" s="4">
-        <v>43825</v>
+        <v>43826</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>8</v>
@@ -2007,7 +2002,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
@@ -2045,152 +2040,152 @@
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B3" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>49</v>
+      <c r="B3" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>46</v>
       </c>
       <c r="D3" s="3">
         <v>1</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H3" s="13">
         <v>43825</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
       <c r="D4" s="3">
         <v>2</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H4" s="13">
         <v>43825</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
       <c r="D5" s="3">
         <v>3</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H5" s="13">
         <v>43825</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
       <c r="D6" s="3">
         <v>4</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H6" s="13">
         <v>43825</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
       <c r="D7" s="3">
         <v>5</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H7" s="13">
         <v>43825</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
       <c r="D8" s="3">
         <v>6</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H8" s="13">
         <v>43825</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
       <c r="D9" s="3">
         <v>7</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H9" s="13">
         <v>43825</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B10" s="16"/>
-      <c r="C10" s="17"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="18"/>
       <c r="D10" s="3">
         <v>8</v>
       </c>
@@ -2205,353 +2200,353 @@
         <v>43825</v>
       </c>
       <c r="I10" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B11" s="17"/>
+      <c r="C11" s="16" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B11" s="16"/>
-      <c r="C11" s="15" t="s">
-        <v>50</v>
       </c>
       <c r="D11" s="3">
         <v>9</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="12" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H11" s="13">
         <v>43825</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
       <c r="D12" s="3">
         <v>10</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F12" s="8"/>
       <c r="G12" s="12" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H12" s="13">
         <v>43825</v>
       </c>
       <c r="I12" s="12" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
       <c r="D13" s="3">
         <v>11</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F13" s="8"/>
       <c r="G13" s="12" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H13" s="13">
         <v>43825</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="2:9" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
       <c r="D14" s="3">
         <v>12</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F14" s="8"/>
       <c r="G14" s="12" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H14" s="13">
         <v>43825</v>
       </c>
       <c r="I14" s="12" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="2:9" hidden="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
       <c r="D15" s="3">
         <v>13</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F15" s="8"/>
       <c r="G15" s="12" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H15" s="13">
         <v>43825</v>
       </c>
       <c r="I15" s="12" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="2:9" hidden="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="16"/>
-      <c r="C16" s="17"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="18"/>
       <c r="D16" s="3">
         <v>14</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F16" s="8"/>
       <c r="G16" s="12" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H16" s="13">
         <v>43825</v>
       </c>
       <c r="I16" s="12" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B17" s="16"/>
+      <c r="B17" s="17"/>
       <c r="C17" s="14" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D17" s="3">
         <v>15</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F17" s="8"/>
       <c r="G17" s="12" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H17" s="13">
         <v>43825</v>
       </c>
       <c r="I17" s="12" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B18" s="16"/>
-      <c r="C18" s="18" t="s">
-        <v>52</v>
+      <c r="B18" s="17"/>
+      <c r="C18" s="19" t="s">
+        <v>49</v>
       </c>
       <c r="D18" s="3">
         <v>17</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F18" s="8"/>
       <c r="G18" s="12" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H18" s="13">
         <v>43825</v>
       </c>
       <c r="I18" s="12" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B19" s="16"/>
-      <c r="C19" s="18"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="19"/>
       <c r="D19" s="3">
         <v>18</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F19" s="8"/>
       <c r="G19" s="12" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H19" s="13">
         <v>43825</v>
       </c>
       <c r="I19" s="12" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B20" s="16"/>
-      <c r="C20" s="18"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="19"/>
       <c r="D20" s="3">
         <v>19</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F20" s="8"/>
       <c r="G20" s="12" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H20" s="13">
         <v>43825</v>
       </c>
       <c r="I20" s="12" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B21" s="16"/>
-      <c r="C21" s="18"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="19"/>
       <c r="D21" s="3">
         <v>20</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F21" s="8"/>
       <c r="G21" s="12" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H21" s="13">
         <v>43825</v>
       </c>
       <c r="I21" s="12" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B22" s="16"/>
-      <c r="C22" s="18"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="19"/>
       <c r="D22" s="3">
         <v>21</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F22" s="8"/>
       <c r="G22" s="12" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H22" s="13">
         <v>43825</v>
       </c>
       <c r="I22" s="12" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B23" s="16"/>
-      <c r="C23" s="18"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="19"/>
       <c r="D23" s="3">
         <v>22</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F23" s="8"/>
       <c r="G23" s="12" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H23" s="13">
         <v>43825</v>
       </c>
       <c r="I23" s="12" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B24" s="16"/>
-      <c r="C24" s="18"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="19"/>
       <c r="D24" s="3">
         <v>23</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F24" s="8"/>
       <c r="G24" s="12" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H24" s="13">
         <v>43825</v>
       </c>
       <c r="I24" s="12" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B25" s="16"/>
-      <c r="C25" s="18"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="19"/>
       <c r="D25" s="3">
         <v>24</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F25" s="8"/>
       <c r="G25" s="12" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H25" s="13">
         <v>43825</v>
       </c>
       <c r="I25" s="12" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B26" s="16"/>
-      <c r="C26" s="18"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="19"/>
       <c r="D26" s="3">
         <v>26</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F26" s="8"/>
       <c r="G26" s="12" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H26" s="13">
         <v>43825</v>
       </c>
       <c r="I26" s="12" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B27" s="17"/>
-      <c r="C27" s="18"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="19"/>
       <c r="D27" s="3">
         <v>27</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F27" s="8"/>
       <c r="G27" s="12" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H27" s="13">
         <v>43825</v>
       </c>
       <c r="I27" s="12" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/テスト項目/結合テスト.xlsx
+++ b/テスト項目/結合テスト.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\B4_2019\Documents\GitHub\YoloBarcodeReader\テスト項目\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\YoloBarcodeReader\テスト項目\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14625"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14625" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="86">
   <si>
     <t>確認内容</t>
     <rPh sb="0" eb="2">
@@ -786,35 +786,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>エッジ側に画像受信から番号取得までが成否を返す</t>
-    <rPh sb="3" eb="4">
-      <t>ガワ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ジュシン</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>バンゴウ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>セイヒ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>カエ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>×</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>〇</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -832,10 +803,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>×</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>カートごとに画面を分かれて表示させる</t>
     <rPh sb="6" eb="8">
       <t>ガメン</t>
@@ -1113,6 +1080,42 @@
   </si>
   <si>
     <t>△</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エッジ側へ、サーバが画像受信から番号取得までが成功したかの結果を返す</t>
+    <rPh sb="3" eb="4">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジュシン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>セイコウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1557,8 +1560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="C2:H20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1671,7 +1674,7 @@
         <v>4</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>13</v>
@@ -1953,7 +1956,7 @@
         <v>35</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H19" s="4">
         <v>43826</v>
@@ -1973,7 +1976,7 @@
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="15" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H20" s="4">
         <v>43826</v>
@@ -2000,10 +2003,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I27"/>
+  <dimension ref="B2:H27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2011,13 +2014,12 @@
     <col min="3" max="3" width="15.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.125" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="68.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" style="1"/>
-    <col min="8" max="8" width="9.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9" style="1"/>
+    <col min="6" max="6" width="9" style="1"/>
+    <col min="7" max="7" width="9.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
       <c r="D2" s="6" t="s">
@@ -2026,20 +2028,17 @@
       <c r="E2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>1</v>
+      <c r="F2" s="7" t="s">
+        <v>2</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B3" s="16" t="s">
         <v>45</v>
       </c>
@@ -2052,18 +2051,17 @@
       <c r="E3" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="7" t="s">
+      <c r="F3" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="H3" s="13">
-        <v>43825</v>
-      </c>
-      <c r="I3" s="7" t="s">
+      <c r="G3" s="13">
+        <v>43825</v>
+      </c>
+      <c r="H3" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B4" s="17"/>
       <c r="C4" s="17"/>
       <c r="D4" s="3">
@@ -2072,18 +2070,17 @@
       <c r="E4" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="7" t="s">
+      <c r="F4" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="H4" s="13">
-        <v>43825</v>
-      </c>
-      <c r="I4" s="7" t="s">
+      <c r="G4" s="13">
+        <v>43825</v>
+      </c>
+      <c r="H4" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B5" s="17"/>
       <c r="C5" s="17"/>
       <c r="D5" s="3">
@@ -2092,18 +2089,17 @@
       <c r="E5" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="7" t="s">
+      <c r="F5" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="H5" s="13">
-        <v>43825</v>
-      </c>
-      <c r="I5" s="7" t="s">
+      <c r="G5" s="13">
+        <v>43825</v>
+      </c>
+      <c r="H5" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B6" s="17"/>
       <c r="C6" s="17"/>
       <c r="D6" s="3">
@@ -2112,18 +2108,17 @@
       <c r="E6" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="7" t="s">
+      <c r="F6" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="H6" s="13">
-        <v>43825</v>
-      </c>
-      <c r="I6" s="7" t="s">
+      <c r="G6" s="13">
+        <v>43825</v>
+      </c>
+      <c r="H6" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B7" s="17"/>
       <c r="C7" s="17"/>
       <c r="D7" s="3">
@@ -2132,18 +2127,17 @@
       <c r="E7" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="7" t="s">
+      <c r="F7" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="H7" s="13">
-        <v>43825</v>
-      </c>
-      <c r="I7" s="7" t="s">
+      <c r="G7" s="13">
+        <v>43825</v>
+      </c>
+      <c r="H7" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B8" s="17"/>
       <c r="C8" s="17"/>
       <c r="D8" s="3">
@@ -2152,38 +2146,36 @@
       <c r="E8" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="7" t="s">
+      <c r="F8" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="H8" s="13">
-        <v>43825</v>
-      </c>
-      <c r="I8" s="7" t="s">
+      <c r="G8" s="13">
+        <v>43825</v>
+      </c>
+      <c r="H8" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B9" s="17"/>
       <c r="C9" s="17"/>
       <c r="D9" s="3">
         <v>7</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="H9" s="13">
-        <v>43825</v>
-      </c>
-      <c r="I9" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G9" s="13">
+        <v>43825</v>
+      </c>
+      <c r="H9" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B10" s="17"/>
       <c r="C10" s="18"/>
       <c r="D10" s="3">
@@ -2192,18 +2184,17 @@
       <c r="E10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="7" t="s">
+      <c r="F10" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="13">
-        <v>43825</v>
-      </c>
-      <c r="I10" s="7" t="s">
+      <c r="G10" s="13">
+        <v>43825</v>
+      </c>
+      <c r="H10" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B11" s="17"/>
       <c r="C11" s="16" t="s">
         <v>47</v>
@@ -2212,60 +2203,57 @@
         <v>9</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="H11" s="13">
-        <v>43825</v>
-      </c>
-      <c r="I11" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="G11" s="13">
+        <v>43825</v>
+      </c>
+      <c r="H11" s="12" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B12" s="17"/>
       <c r="C12" s="17"/>
       <c r="D12" s="3">
         <v>10</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="F12" s="8"/>
-      <c r="G12" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="H12" s="13">
-        <v>43825</v>
-      </c>
-      <c r="I12" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="G12" s="13">
+        <v>43825</v>
+      </c>
+      <c r="H12" s="12" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B13" s="17"/>
       <c r="C13" s="17"/>
       <c r="D13" s="3">
         <v>11</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="F13" s="8"/>
-      <c r="G13" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="H13" s="13">
-        <v>43825</v>
-      </c>
-      <c r="I13" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="G13" s="13">
+        <v>43825</v>
+      </c>
+      <c r="H13" s="12" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="2:9" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B14" s="17"/>
       <c r="C14" s="17"/>
       <c r="D14" s="3">
@@ -2274,38 +2262,36 @@
       <c r="E14" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="F14" s="8"/>
-      <c r="G14" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="H14" s="13">
-        <v>43825</v>
-      </c>
-      <c r="I14" s="12" t="s">
+      <c r="F14" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="13">
+        <v>43825</v>
+      </c>
+      <c r="H14" s="12" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="2:9" hidden="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
       <c r="D15" s="3">
         <v>13</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="F15" s="8"/>
-      <c r="G15" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="H15" s="13">
-        <v>43825</v>
-      </c>
-      <c r="I15" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="G15" s="13">
+        <v>43825</v>
+      </c>
+      <c r="H15" s="12" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="2:9" hidden="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="B16" s="17"/>
       <c r="C16" s="18"/>
       <c r="D16" s="3">
@@ -2314,18 +2300,17 @@
       <c r="E16" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="F16" s="8"/>
-      <c r="G16" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="H16" s="13">
-        <v>43825</v>
-      </c>
-      <c r="I16" s="12" t="s">
+      <c r="F16" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="G16" s="13">
+        <v>43825</v>
+      </c>
+      <c r="H16" s="12" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B17" s="17"/>
       <c r="C17" s="14" t="s">
         <v>48</v>
@@ -2334,20 +2319,19 @@
         <v>15</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="F17" s="8"/>
-      <c r="G17" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="F17" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="H17" s="13">
-        <v>43825</v>
-      </c>
-      <c r="I17" s="12" t="s">
+      <c r="G17" s="13">
+        <v>43825</v>
+      </c>
+      <c r="H17" s="12" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B18" s="17"/>
       <c r="C18" s="19" t="s">
         <v>49</v>
@@ -2356,196 +2340,186 @@
         <v>17</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="F18" s="8"/>
-      <c r="G18" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="F18" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="H18" s="13">
-        <v>43825</v>
-      </c>
-      <c r="I18" s="12" t="s">
+      <c r="G18" s="13">
+        <v>43825</v>
+      </c>
+      <c r="H18" s="12" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B19" s="17"/>
       <c r="C19" s="19"/>
       <c r="D19" s="3">
         <v>18</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="F19" s="8"/>
-      <c r="G19" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="H19" s="13">
-        <v>43825</v>
-      </c>
-      <c r="I19" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="G19" s="13">
+        <v>43825</v>
+      </c>
+      <c r="H19" s="12" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B20" s="17"/>
       <c r="C20" s="19"/>
       <c r="D20" s="3">
         <v>19</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="F20" s="8"/>
-      <c r="G20" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="H20" s="13">
-        <v>43825</v>
-      </c>
-      <c r="I20" s="12" t="s">
+      <c r="F20" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="G20" s="13">
+        <v>43825</v>
+      </c>
+      <c r="H20" s="12" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B21" s="17"/>
       <c r="C21" s="19"/>
       <c r="D21" s="3">
         <v>20</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="F21" s="8"/>
-      <c r="G21" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="F21" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="H21" s="13">
-        <v>43825</v>
-      </c>
-      <c r="I21" s="12" t="s">
+      <c r="G21" s="13">
+        <v>43825</v>
+      </c>
+      <c r="H21" s="12" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B22" s="17"/>
       <c r="C22" s="19"/>
       <c r="D22" s="3">
         <v>21</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="F22" s="8"/>
-      <c r="G22" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="F22" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="H22" s="13">
-        <v>43825</v>
-      </c>
-      <c r="I22" s="12" t="s">
+      <c r="G22" s="13">
+        <v>43825</v>
+      </c>
+      <c r="H22" s="12" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B23" s="17"/>
       <c r="C23" s="19"/>
       <c r="D23" s="3">
         <v>22</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="F23" s="8"/>
-      <c r="G23" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="F23" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="H23" s="13">
-        <v>43825</v>
-      </c>
-      <c r="I23" s="12" t="s">
+      <c r="G23" s="13">
+        <v>43825</v>
+      </c>
+      <c r="H23" s="12" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B24" s="17"/>
       <c r="C24" s="19"/>
       <c r="D24" s="3">
         <v>23</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="F24" s="8"/>
-      <c r="G24" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="F24" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="H24" s="13">
-        <v>43825</v>
-      </c>
-      <c r="I24" s="12" t="s">
+      <c r="G24" s="13">
+        <v>43825</v>
+      </c>
+      <c r="H24" s="12" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B25" s="17"/>
       <c r="C25" s="19"/>
       <c r="D25" s="3">
         <v>24</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="F25" s="8"/>
-      <c r="G25" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="H25" s="13">
-        <v>43825</v>
-      </c>
-      <c r="I25" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="G25" s="13">
+        <v>43825</v>
+      </c>
+      <c r="H25" s="12" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B26" s="17"/>
       <c r="C26" s="19"/>
       <c r="D26" s="3">
         <v>26</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="F26" s="8"/>
-      <c r="G26" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="F26" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="H26" s="13">
-        <v>43825</v>
-      </c>
-      <c r="I26" s="12" t="s">
+      <c r="G26" s="13">
+        <v>43825</v>
+      </c>
+      <c r="H26" s="12" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B27" s="18"/>
       <c r="C27" s="19"/>
       <c r="D27" s="3">
         <v>27</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="F27" s="8"/>
-      <c r="G27" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="H27" s="13">
-        <v>43825</v>
-      </c>
-      <c r="I27" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="G27" s="13">
+        <v>43825</v>
+      </c>
+      <c r="H27" s="12" t="s">
         <v>50</v>
       </c>
     </row>
